--- a/descarga/policia_Compilado_Total.xlsx
+++ b/descarga/policia_Compilado_Total.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O257"/>
+  <dimension ref="A1:O209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -502,7 +502,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -543,7 +543,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -584,7 +584,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -625,7 +625,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -666,7 +666,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,7 +707,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -748,7 +748,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -789,7 +789,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -830,7 +830,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -871,7 +871,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -912,7 +912,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -953,7 +953,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -994,7 +994,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1035,7 +1035,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1076,7 +1076,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1117,7 +1117,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1158,7 +1158,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1199,7 +1199,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1240,7 +1240,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1281,7 +1281,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1322,7 +1322,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1363,7 +1363,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1404,7 +1404,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1445,7 +1445,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1486,7 +1486,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1527,7 +1527,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1568,7 +1568,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1609,7 +1609,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1650,7 +1650,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1691,7 +1691,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1732,7 +1732,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1773,7 +1773,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1814,7 +1814,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1855,7 +1855,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1896,7 +1896,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1937,7 +1937,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1978,7 +1978,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2019,7 +2019,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2060,7 +2060,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2101,7 +2101,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2142,7 +2142,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2183,7 +2183,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2224,7 +2224,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2265,7 +2265,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2306,7 +2306,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2347,7 +2347,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2388,7 +2388,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2413,11 +2413,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2429,36 +2429,36 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>3</v>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2470,36 +2470,36 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>8</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
       <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2511,36 +2511,36 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>6</v>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>6</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2</v>
+      </c>
       <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2552,36 +2552,36 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>2</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
       <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2593,36 +2593,36 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>6</v>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
       <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2634,36 +2634,36 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>16</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>6</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10</v>
+      </c>
       <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2675,36 +2675,36 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>39</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>50</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>32</v>
+      </c>
+      <c r="N56" t="n">
+        <v>37</v>
+      </c>
       <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2716,36 +2716,36 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>3</v>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>4</v>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>5</v>
+      </c>
       <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2757,36 +2757,36 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>4</v>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
         <v>3</v>
       </c>
-      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2798,36 +2798,36 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2839,36 +2839,36 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>5</v>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>5</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="N60" t="n">
+        <v>11</v>
+      </c>
       <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2880,36 +2880,36 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>7</v>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>3</v>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
       <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2921,36 +2921,36 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>5</v>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>2</v>
       </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
       <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2962,36 +2962,36 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="n">
         <v>4</v>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3003,36 +3003,36 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>0</v>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
       <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3044,36 +3044,36 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
       <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3085,36 +3085,36 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>6</v>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>3</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
       <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3126,36 +3126,36 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>4</v>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
       <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3167,36 +3167,36 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
         <v>5</v>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
       <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3208,36 +3208,36 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>3</v>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
       <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3249,36 +3249,36 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="n">
         <v>3</v>
       </c>
-      <c r="M70" t="n">
-        <v>3</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3290,36 +3290,36 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>9</v>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
+        <v>11</v>
+      </c>
+      <c r="N71" t="n">
         <v>10</v>
       </c>
-      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3331,36 +3331,36 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>45</v>
+      </c>
+      <c r="N72" t="n">
         <v>48</v>
       </c>
-      <c r="M72" t="n">
-        <v>53</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3372,36 +3372,36 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>5</v>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>3</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
       <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3413,36 +3413,36 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>10</v>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>4</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
       <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3454,36 +3454,36 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>3</v>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
       <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3495,36 +3495,36 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>7</v>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>6</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="N76" t="n">
+        <v>11</v>
+      </c>
       <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3536,36 +3536,36 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="n">
         <v>3</v>
       </c>
-      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3577,36 +3577,36 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>4</v>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
       <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3618,36 +3618,36 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>7</v>
+      </c>
+      <c r="N79" t="n">
         <v>2</v>
       </c>
-      <c r="M79" t="n">
-        <v>2</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3659,36 +3659,36 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
         <v>0</v>
       </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3700,36 +3700,36 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>0</v>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
-      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3741,36 +3741,36 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>5</v>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>6</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3</v>
+      </c>
       <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3782,36 +3782,36 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>4</v>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>7</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
       <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3823,36 +3823,36 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>6</v>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>3</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="N84" t="n">
+        <v>7</v>
+      </c>
       <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3864,36 +3864,36 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>3</v>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>5</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
       <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3905,36 +3905,36 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>3</v>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>4</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
       <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3946,36 +3946,36 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>10</v>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>10</v>
       </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>16</v>
+      </c>
       <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3987,36 +3987,36 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>48</v>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>54</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="N88" t="n">
+        <v>47</v>
+      </c>
       <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4028,36 +4028,36 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>2</v>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>3</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5</v>
+      </c>
       <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4069,36 +4069,36 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>10</v>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>7</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6</v>
+      </c>
       <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4110,36 +4110,36 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
       <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4151,36 +4151,36 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>15</v>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>6</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="N92" t="n">
+        <v>8</v>
+      </c>
       <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4192,36 +4192,36 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>3</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5</v>
+      </c>
       <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4233,36 +4233,36 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
       <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4274,36 +4274,36 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>7</v>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>5</v>
       </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
       <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4315,36 +4315,36 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>0</v>
       </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
       <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4356,27 +4356,27 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
         <v>0</v>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
       <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4397,7 +4397,7 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -4413,10 +4413,10 @@
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O98" t="inlineStr"/>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4438,7 +4438,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -4457,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O99" t="inlineStr"/>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4479,7 +4479,7 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -4495,10 +4495,10 @@
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O100" t="inlineStr"/>
     </row>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4520,7 +4520,7 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -4536,10 +4536,10 @@
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
-      </c>
-      <c r="N101" t="n">
-        <v>3</v>
       </c>
       <c r="O101" t="inlineStr"/>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4561,7 +4561,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -4577,10 +4577,10 @@
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O102" t="inlineStr"/>
     </row>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4602,7 +4602,7 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -4618,10 +4618,10 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N103" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O103" t="inlineStr"/>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4643,7 +4643,7 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -4659,10 +4659,10 @@
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N104" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="O104" t="inlineStr"/>
     </row>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4684,7 +4684,7 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -4703,7 +4703,7 @@
         <v>4</v>
       </c>
       <c r="N105" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O105" t="inlineStr"/>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4725,7 +4725,7 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N106" t="n">
         <v>3</v>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4766,7 +4766,7 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -4782,10 +4782,10 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O107" t="inlineStr"/>
     </row>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4807,7 +4807,7 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -4823,10 +4823,10 @@
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O108" t="inlineStr"/>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4848,7 +4848,7 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O109" t="inlineStr"/>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4889,7 +4889,7 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -4908,7 +4908,7 @@
         <v>2</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O110" t="inlineStr"/>
     </row>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4930,7 +4930,7 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -4946,10 +4946,10 @@
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N111" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O111" t="inlineStr"/>
     </row>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4971,7 +4971,7 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5012,7 +5012,7 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -5028,10 +5028,10 @@
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" t="inlineStr"/>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5053,7 +5053,7 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -5069,10 +5069,10 @@
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
-      </c>
-      <c r="N114" t="n">
-        <v>2</v>
       </c>
       <c r="O114" t="inlineStr"/>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5094,7 +5094,7 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5135,7 +5135,7 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -5151,10 +5151,10 @@
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O116" t="inlineStr"/>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5176,7 +5176,7 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="N117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O117" t="inlineStr"/>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5217,7 +5217,7 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -5233,10 +5233,10 @@
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O118" t="inlineStr"/>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5258,7 +5258,7 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -5274,10 +5274,10 @@
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N119" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O119" t="inlineStr"/>
     </row>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5299,7 +5299,7 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -5315,10 +5315,10 @@
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N120" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O120" t="inlineStr"/>
     </row>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5340,7 +5340,7 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -5356,10 +5356,10 @@
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N121" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O121" t="inlineStr"/>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5381,7 +5381,7 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -5397,10 +5397,10 @@
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O122" t="inlineStr"/>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5422,7 +5422,7 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -5438,10 +5438,10 @@
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O123" t="inlineStr"/>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5463,7 +5463,7 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -5479,7 +5479,7 @@
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N124" t="n">
         <v>11</v>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5504,7 +5504,7 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -5520,10 +5520,10 @@
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O125" t="inlineStr"/>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5545,7 +5545,7 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="N126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O126" t="inlineStr"/>
     </row>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5586,7 +5586,7 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -5602,10 +5602,10 @@
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O127" t="inlineStr"/>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5627,7 +5627,7 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -5643,7 +5643,7 @@
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5668,7 +5668,7 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -5684,10 +5684,10 @@
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
         <v>0</v>
-      </c>
-      <c r="N129" t="n">
-        <v>1</v>
       </c>
       <c r="O129" t="inlineStr"/>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5709,7 +5709,7 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -5725,10 +5725,10 @@
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
+        <v>6</v>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
-      </c>
-      <c r="N130" t="n">
-        <v>3</v>
       </c>
       <c r="O130" t="inlineStr"/>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5750,7 +5750,7 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -5766,10 +5766,10 @@
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O131" t="inlineStr"/>
     </row>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5791,7 +5791,7 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -5807,10 +5807,10 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N132" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O132" t="inlineStr"/>
     </row>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5832,7 +5832,7 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -5848,10 +5848,10 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O133" t="inlineStr"/>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5873,7 +5873,7 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -5889,10 +5889,10 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N134" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O134" t="inlineStr"/>
     </row>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5914,7 +5914,7 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -5933,7 +5933,7 @@
         <v>10</v>
       </c>
       <c r="N135" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O135" t="inlineStr"/>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5955,7 +5955,7 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -5971,10 +5971,10 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N136" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O136" t="inlineStr"/>
     </row>
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5996,7 +5996,7 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -6012,10 +6012,10 @@
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N137" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O137" t="inlineStr"/>
     </row>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6037,7 +6037,7 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -6053,10 +6053,10 @@
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
+        <v>7</v>
+      </c>
+      <c r="N138" t="n">
         <v>5</v>
-      </c>
-      <c r="N138" t="n">
-        <v>6</v>
       </c>
       <c r="O138" t="inlineStr"/>
     </row>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6078,7 +6078,7 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -6097,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="N139" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O139" t="inlineStr"/>
     </row>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6119,7 +6119,7 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -6135,10 +6135,10 @@
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N140" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O140" t="inlineStr"/>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6160,7 +6160,7 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -6176,10 +6176,10 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N141" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O141" t="inlineStr"/>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6201,7 +6201,7 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -6217,7 +6217,7 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N142" t="n">
         <v>3</v>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6242,7 +6242,7 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
         <v>5</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O143" t="inlineStr"/>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6283,7 +6283,7 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6324,7 +6324,7 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -6340,7 +6340,7 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
@@ -6349,11 +6349,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6365,36 +6365,36 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>0</v>
-      </c>
+      <c r="M146" t="inlineStr"/>
       <c r="N146" t="n">
-        <v>4</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="O146" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6406,36 +6406,36 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
+      <c r="M147" t="inlineStr"/>
       <c r="N147" t="n">
-        <v>1</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="O147" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6447,36 +6447,36 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>6</v>
-      </c>
+      <c r="M148" t="inlineStr"/>
       <c r="N148" t="n">
-        <v>6</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O148" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6488,36 +6488,36 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>2</v>
       </c>
-      <c r="N149" t="n">
+      <c r="O149" t="n">
         <v>1</v>
       </c>
-      <c r="O149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6529,36 +6529,36 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>2</v>
-      </c>
+      <c r="M150" t="inlineStr"/>
       <c r="N150" t="n">
-        <v>2</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O150" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6570,36 +6570,36 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>6</v>
-      </c>
+      <c r="M151" t="inlineStr"/>
       <c r="N151" t="n">
-        <v>12</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="O151" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6611,36 +6611,36 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>51</v>
-      </c>
+      <c r="M152" t="inlineStr"/>
       <c r="N152" t="n">
-        <v>55</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
+        <v>59</v>
+      </c>
+      <c r="O152" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6652,36 +6652,36 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>4</v>
-      </c>
+      <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
-        <v>7</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="O153" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6693,36 +6693,36 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>3</v>
-      </c>
+      <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
-        <v>3</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="O154" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6734,36 +6734,36 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
+      <c r="M155" t="inlineStr"/>
       <c r="N155" t="n">
         <v>0</v>
       </c>
-      <c r="O155" t="inlineStr"/>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6775,36 +6775,36 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>5</v>
-      </c>
+      <c r="M156" t="inlineStr"/>
       <c r="N156" t="n">
-        <v>12</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="O156" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6816,36 +6816,36 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>3</v>
-      </c>
+      <c r="M157" t="inlineStr"/>
       <c r="N157" t="n">
-        <v>2</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="O157" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6857,36 +6857,36 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>2</v>
-      </c>
+      <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
         <v>3</v>
       </c>
-      <c r="O158" t="inlineStr"/>
+      <c r="O158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6898,36 +6898,36 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
+      <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
-        <v>1</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="O159" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6939,36 +6939,36 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>0</v>
-      </c>
+      <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
         <v>1</v>
       </c>
-      <c r="O160" t="inlineStr"/>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6980,36 +6980,36 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
+      <c r="M161" t="inlineStr"/>
       <c r="N161" t="n">
-        <v>1</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7021,36 +7021,36 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>3</v>
-      </c>
+      <c r="M162" t="inlineStr"/>
       <c r="N162" t="n">
         <v>1</v>
       </c>
-      <c r="O162" t="inlineStr"/>
+      <c r="O162" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7062,36 +7062,36 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
+      <c r="M163" t="inlineStr"/>
       <c r="N163" t="n">
-        <v>1</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7103,36 +7103,36 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
+      <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
         <v>4</v>
       </c>
-      <c r="O164" t="inlineStr"/>
+      <c r="O164" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7144,36 +7144,36 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
+      <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
         <v>2</v>
       </c>
-      <c r="O165" t="inlineStr"/>
+      <c r="O165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7185,36 +7185,36 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>3</v>
-      </c>
+      <c r="M166" t="inlineStr"/>
       <c r="N166" t="n">
-        <v>1</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="O166" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7226,36 +7226,36 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>10</v>
-      </c>
+      <c r="M167" t="inlineStr"/>
       <c r="N167" t="n">
-        <v>9</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="O167" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7267,36 +7267,36 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>54</v>
-      </c>
+      <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
         <v>40</v>
       </c>
-      <c r="O168" t="inlineStr"/>
+      <c r="O168" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7308,36 +7308,36 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>3</v>
-      </c>
+      <c r="M169" t="inlineStr"/>
       <c r="N169" t="n">
-        <v>7</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="O169" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7349,36 +7349,36 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>5</v>
+      </c>
+      <c r="O170" t="n">
         <v>4</v>
       </c>
-      <c r="N170" t="n">
-        <v>6</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7390,36 +7390,36 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
+      <c r="M171" t="inlineStr"/>
       <c r="N171" t="n">
-        <v>3</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="O171" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7431,36 +7431,36 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>6</v>
       </c>
-      <c r="N172" t="n">
-        <v>11</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
+      <c r="O172" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7472,36 +7472,36 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>3</v>
-      </c>
+      <c r="M173" t="inlineStr"/>
       <c r="N173" t="n">
-        <v>2</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="O173" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7513,36 +7513,36 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
-      <c r="N174" t="n">
+      <c r="O174" t="n">
         <v>2</v>
       </c>
-      <c r="O174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7554,36 +7554,36 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>2</v>
-      </c>
+      <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
-        <v>3</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O175" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7595,36 +7595,36 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>0</v>
-      </c>
+      <c r="M176" t="inlineStr"/>
       <c r="N176" t="n">
-        <v>0</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O176" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7636,36 +7636,36 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Febrero</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
-      <c r="N177" t="n">
-        <v>0</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
+      <c r="O177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7677,36 +7677,36 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>6</v>
-      </c>
+      <c r="M178" t="inlineStr"/>
       <c r="N178" t="n">
         <v>1</v>
       </c>
-      <c r="O178" t="inlineStr"/>
+      <c r="O178" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7718,36 +7718,36 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>7</v>
-      </c>
+      <c r="M179" t="inlineStr"/>
       <c r="N179" t="n">
-        <v>4</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7759,36 +7759,36 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>3</v>
-      </c>
+      <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
-        <v>3</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7800,36 +7800,36 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>5</v>
       </c>
-      <c r="N181" t="n">
-        <v>3</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
+      <c r="O181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7841,36 +7841,36 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>4</v>
       </c>
-      <c r="N182" t="n">
-        <v>7</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7882,36 +7882,36 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
+      <c r="M183" t="inlineStr"/>
       <c r="N183" t="n">
-        <v>13</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="O183" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7923,36 +7923,36 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>55</v>
-      </c>
+      <c r="M184" t="inlineStr"/>
       <c r="N184" t="n">
-        <v>52</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="O184" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7964,36 +7964,36 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>3</v>
       </c>
-      <c r="N185" t="n">
-        <v>2</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
+      <c r="O185" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8005,36 +8005,36 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>7</v>
-      </c>
+      <c r="M186" t="inlineStr"/>
       <c r="N186" t="n">
-        <v>5</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="O186" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8046,36 +8046,36 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
+      <c r="M187" t="inlineStr"/>
       <c r="N187" t="n">
         <v>4</v>
       </c>
-      <c r="O187" t="inlineStr"/>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8087,36 +8087,36 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>6</v>
-      </c>
+      <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
+        <v>12</v>
+      </c>
+      <c r="O188" t="n">
         <v>5</v>
       </c>
-      <c r="O188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8128,36 +8128,36 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>3</v>
       </c>
-      <c r="N189" t="n">
-        <v>7</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -8169,36 +8169,36 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>5</v>
+      </c>
+      <c r="O190" t="n">
         <v>1</v>
       </c>
-      <c r="N190" t="n">
-        <v>3</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8210,36 +8210,36 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>5</v>
-      </c>
+      <c r="M191" t="inlineStr"/>
       <c r="N191" t="n">
-        <v>3</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="O191" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8251,36 +8251,36 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>0</v>
-      </c>
+      <c r="M192" t="inlineStr"/>
       <c r="N192" t="n">
+        <v>2</v>
+      </c>
+      <c r="O192" t="n">
         <v>1</v>
       </c>
-      <c r="O192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8292,28 +8292,28 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
+      <c r="M193" t="inlineStr"/>
       <c r="N193" t="n">
         <v>0</v>
       </c>
-      <c r="O193" t="inlineStr"/>
+      <c r="O193" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8333,7 +8333,7 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I194" t="inlineStr"/>
@@ -8350,10 +8350,10 @@
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O194" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8374,7 +8374,7 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G195" t="n">
@@ -8382,7 +8382,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I195" t="inlineStr"/>
@@ -8391,10 +8391,10 @@
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
+        <v>6</v>
+      </c>
+      <c r="O195" t="n">
         <v>3</v>
-      </c>
-      <c r="O195" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8415,7 +8415,7 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G196" t="n">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
@@ -8432,10 +8432,10 @@
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O196" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
@@ -8444,7 +8444,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8456,7 +8456,7 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -8473,10 +8473,10 @@
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O197" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8497,7 +8497,7 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
@@ -8514,10 +8514,10 @@
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O198" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8538,7 +8538,7 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
@@ -8558,7 +8558,7 @@
         <v>10</v>
       </c>
       <c r="O199" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8579,7 +8579,7 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
@@ -8596,10 +8596,10 @@
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="O200" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="201">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8620,7 +8620,7 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G201" t="n">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
@@ -8637,10 +8637,10 @@
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O201" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8661,7 +8661,7 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G202" t="n">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I202" t="inlineStr"/>
@@ -8678,7 +8678,7 @@
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O202" t="n">
         <v>4</v>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8702,7 +8702,7 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G203" t="n">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I203" t="inlineStr"/>
@@ -8719,10 +8719,10 @@
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8743,7 +8743,7 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G204" t="n">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I204" t="inlineStr"/>
@@ -8760,10 +8760,10 @@
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O204" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8784,7 +8784,7 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
@@ -8801,10 +8801,10 @@
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O205" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8825,7 +8825,7 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
@@ -8842,7 +8842,7 @@
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O206" t="n">
         <v>2</v>
@@ -8854,7 +8854,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8866,7 +8866,7 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I207" t="inlineStr"/>
@@ -8883,10 +8883,10 @@
       <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O207" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8907,7 +8907,7 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I208" t="inlineStr"/>
@@ -8924,7 +8924,7 @@
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O208" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8948,7 +8948,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
         </is>
       </c>
       <c r="G209" t="n">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="I209" t="inlineStr"/>
@@ -8965,1977 +8965,9 @@
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G210" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="n">
-        <v>1</v>
-      </c>
-      <c r="O210" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Región de Tarapacá</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G211" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="inlineStr"/>
-      <c r="N211" t="n">
-        <v>3</v>
-      </c>
-      <c r="O211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Región de Antofagasta</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G212" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="inlineStr"/>
-      <c r="N212" t="n">
-        <v>4</v>
-      </c>
-      <c r="O212" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Región de Atacama</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G213" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="n">
-        <v>2</v>
-      </c>
-      <c r="O213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Región de Coquimbo</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G214" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
-      <c r="N214" t="n">
-        <v>5</v>
-      </c>
-      <c r="O214" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Región de Valparaíso</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G215" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="inlineStr"/>
-      <c r="N215" t="n">
-        <v>7</v>
-      </c>
-      <c r="O215" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Región Metropolitana de Santiago</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G216" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="inlineStr"/>
-      <c r="N216" t="n">
-        <v>40</v>
-      </c>
-      <c r="O216" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G217" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
-      <c r="N217" t="n">
-        <v>2</v>
-      </c>
-      <c r="O217" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Región del Maule</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G218" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="inlineStr"/>
-      <c r="N218" t="n">
-        <v>5</v>
-      </c>
-      <c r="O218" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="inlineStr"/>
-      <c r="N219" t="n">
-        <v>2</v>
-      </c>
-      <c r="O219" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Región del Biobío</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G220" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
-      <c r="N220" t="n">
-        <v>6</v>
-      </c>
-      <c r="O220" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G221" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="inlineStr"/>
-      <c r="N221" t="n">
-        <v>4</v>
-      </c>
-      <c r="O221" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Región de Los Ríos</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G222" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="n">
-        <v>1</v>
-      </c>
-      <c r="O222" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Región de Los Lagos</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G223" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="n">
-        <v>1</v>
-      </c>
-      <c r="O223" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G224" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
-      <c r="N224" t="n">
-        <v>1</v>
-      </c>
-      <c r="O224" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G225" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
-      <c r="N225" t="n">
-        <v>1</v>
-      </c>
-      <c r="O225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G226" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
-      <c r="N226" t="n">
-        <v>1</v>
-      </c>
-      <c r="O226" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Región de Tarapacá</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G227" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="inlineStr"/>
-      <c r="N227" t="n">
-        <v>2</v>
-      </c>
-      <c r="O227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Región de Antofagasta</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G228" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
-      <c r="N228" t="n">
-        <v>5</v>
-      </c>
-      <c r="O228" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Región de Atacama</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G229" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
-      <c r="N229" t="n">
-        <v>5</v>
-      </c>
-      <c r="O229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Región de Coquimbo</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G230" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="n">
-        <v>4</v>
-      </c>
-      <c r="O230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Región de Valparaíso</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G231" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
-      <c r="N231" t="n">
-        <v>11</v>
-      </c>
-      <c r="O231" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Región Metropolitana de Santiago</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G232" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
-      <c r="N232" t="n">
-        <v>47</v>
-      </c>
-      <c r="O232" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G233" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
-      <c r="N233" t="n">
-        <v>3</v>
-      </c>
-      <c r="O233" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Región del Maule</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G234" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="n">
-        <v>2</v>
-      </c>
-      <c r="O234" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G235" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
-      <c r="N235" t="n">
-        <v>4</v>
-      </c>
-      <c r="O235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Región del Biobío</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G236" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
-      <c r="N236" t="n">
-        <v>12</v>
-      </c>
-      <c r="O236" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G237" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
-      <c r="N237" t="n">
-        <v>3</v>
-      </c>
-      <c r="O237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Región de Los Ríos</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr"/>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G238" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
-      <c r="N238" t="n">
-        <v>5</v>
-      </c>
-      <c r="O238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Región de Los Lagos</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G239" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="inlineStr"/>
-      <c r="N239" t="n">
-        <v>7</v>
-      </c>
-      <c r="O239" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G240" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="inlineStr"/>
-      <c r="N240" t="n">
-        <v>2</v>
-      </c>
-      <c r="O240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G241" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="inlineStr"/>
-      <c r="N241" t="n">
-        <v>0</v>
-      </c>
-      <c r="O241" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G242" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="inlineStr"/>
-      <c r="N242" t="n">
-        <v>2</v>
-      </c>
-      <c r="O242" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Región de Tarapacá</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G243" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="inlineStr"/>
-      <c r="N243" t="n">
-        <v>6</v>
-      </c>
-      <c r="O243" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Región de Antofagasta</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G244" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="n">
-        <v>3</v>
-      </c>
-      <c r="O244" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Región de Atacama</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G245" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="n">
-        <v>1</v>
-      </c>
-      <c r="O245" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Región de Coquimbo</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G246" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="n">
-        <v>7</v>
-      </c>
-      <c r="O246" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Región de Valparaíso</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G247" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="n">
-        <v>10</v>
-      </c>
-      <c r="O247" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Región Metropolitana de Santiago</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr"/>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G248" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
-      <c r="N248" t="n">
-        <v>29</v>
-      </c>
-      <c r="O248" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G249" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="inlineStr"/>
-      <c r="N249" t="n">
-        <v>4</v>
-      </c>
-      <c r="O249" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Región del Maule</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr"/>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G250" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="inlineStr"/>
-      <c r="N250" t="n">
-        <v>2</v>
-      </c>
-      <c r="O250" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr"/>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G251" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
-      <c r="N251" t="n">
-        <v>3</v>
-      </c>
-      <c r="O251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Región del Biobío</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr"/>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G252" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
-      <c r="N252" t="n">
-        <v>7</v>
-      </c>
-      <c r="O252" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr"/>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G253" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="inlineStr"/>
-      <c r="N253" t="n">
-        <v>1</v>
-      </c>
-      <c r="O253" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Región de Los Ríos</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr"/>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G254" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="inlineStr"/>
-      <c r="N254" t="n">
-        <v>0</v>
-      </c>
-      <c r="O254" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Región de Los Lagos</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr"/>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G255" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="inlineStr"/>
-      <c r="N255" t="n">
-        <v>4</v>
-      </c>
-      <c r="O255" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr"/>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G256" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="inlineStr"/>
-      <c r="N256" t="n">
-        <v>0</v>
-      </c>
-      <c r="O256" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr"/>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Ministerio Público, los cuales se extraen desde el sistema informático de apoyo a los Fiscales (SAF)</t>
-        </is>
-      </c>
-      <c r="G257" t="n">
-        <v>2025</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="inlineStr"/>
-      <c r="N257" t="n">
-        <v>1</v>
-      </c>
-      <c r="O257" t="n">
         <v>0</v>
       </c>
     </row>

--- a/descarga/policia_Compilado_Total.xlsx
+++ b/descarga/policia_Compilado_Total.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O209"/>
+  <dimension ref="A1:O257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,11 +2413,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2433,32 +2433,32 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>3</v>
+      </c>
       <c r="M50" t="n">
-        <v>2</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2474,32 +2474,32 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>8</v>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
-      <c r="N51" t="n">
-        <v>3</v>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2515,32 +2515,32 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>6</v>
+      </c>
       <c r="M52" t="n">
-        <v>7</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2556,32 +2556,32 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
       <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2597,32 +2597,32 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>6</v>
+      </c>
       <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2638,32 +2638,32 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>16</v>
+      </c>
       <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="n">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2679,32 +2679,32 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>39</v>
+      </c>
       <c r="M56" t="n">
-        <v>32</v>
-      </c>
-      <c r="N56" t="n">
-        <v>37</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2720,32 +2720,32 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
-      <c r="N57" t="n">
-        <v>5</v>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2761,32 +2761,32 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>4</v>
+      </c>
       <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="n">
         <v>3</v>
       </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2802,32 +2802,32 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
       <c r="M59" t="n">
-        <v>2</v>
-      </c>
-      <c r="N59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2843,32 +2843,32 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>5</v>
+      </c>
       <c r="M60" t="n">
-        <v>8</v>
-      </c>
-      <c r="N60" t="n">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2884,32 +2884,32 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>7</v>
+      </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
-      <c r="N61" t="n">
-        <v>1</v>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2925,32 +2925,32 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>5</v>
+      </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2966,32 +2966,32 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>4</v>
+      </c>
       <c r="M63" t="n">
-        <v>5</v>
-      </c>
-      <c r="N63" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3007,32 +3007,32 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
-      <c r="N64" t="n">
-        <v>1</v>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3048,32 +3048,32 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
       <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3089,32 +3089,32 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>6</v>
+      </c>
       <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3130,32 +3130,32 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>4</v>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
-      <c r="N67" t="n">
-        <v>1</v>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3171,32 +3171,32 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>5</v>
+      </c>
       <c r="M68" t="n">
-        <v>5</v>
-      </c>
-      <c r="N68" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3212,32 +3212,32 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>3</v>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
-      <c r="N69" t="n">
-        <v>3</v>
-      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3253,32 +3253,32 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
       <c r="M70" t="n">
-        <v>2</v>
-      </c>
-      <c r="N70" t="n">
         <v>3</v>
       </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3294,32 +3294,32 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>9</v>
+      </c>
       <c r="M71" t="n">
-        <v>11</v>
-      </c>
-      <c r="N71" t="n">
         <v>10</v>
       </c>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3335,32 +3335,32 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>48</v>
+      </c>
       <c r="M72" t="n">
-        <v>45</v>
-      </c>
-      <c r="N72" t="n">
-        <v>48</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3376,32 +3376,32 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>5</v>
+      </c>
       <c r="M73" t="n">
-        <v>4</v>
-      </c>
-      <c r="N73" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3417,32 +3417,32 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>10</v>
+      </c>
       <c r="M74" t="n">
-        <v>5</v>
-      </c>
-      <c r="N74" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3458,32 +3458,32 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>3</v>
+      </c>
       <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3499,32 +3499,32 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>7</v>
+      </c>
       <c r="M76" t="n">
-        <v>8</v>
-      </c>
-      <c r="N76" t="n">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3540,32 +3540,32 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
       <c r="M77" t="n">
-        <v>4</v>
-      </c>
-      <c r="N77" t="n">
         <v>3</v>
       </c>
+      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3581,32 +3581,32 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>4</v>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
-      <c r="N78" t="n">
-        <v>1</v>
-      </c>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3622,32 +3622,32 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
       <c r="M79" t="n">
-        <v>7</v>
-      </c>
-      <c r="N79" t="n">
         <v>2</v>
       </c>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3663,32 +3663,32 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
       <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="n">
         <v>0</v>
       </c>
+      <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3704,32 +3704,32 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Agosto</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
       <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3745,32 +3745,32 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>5</v>
+      </c>
       <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="n">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3786,32 +3786,32 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>4</v>
+      </c>
       <c r="M83" t="n">
-        <v>5</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3827,32 +3827,32 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>6</v>
+      </c>
       <c r="M84" t="n">
-        <v>5</v>
-      </c>
-      <c r="N84" t="n">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3868,32 +3868,32 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>3</v>
+      </c>
       <c r="M85" t="n">
-        <v>2</v>
-      </c>
-      <c r="N85" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3909,32 +3909,32 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
       <c r="M86" t="n">
-        <v>6</v>
-      </c>
-      <c r="N86" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3950,32 +3950,32 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>10</v>
+      </c>
       <c r="M87" t="n">
         <v>10</v>
       </c>
-      <c r="N87" t="n">
-        <v>16</v>
-      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3991,32 +3991,32 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>48</v>
+      </c>
       <c r="M88" t="n">
-        <v>47</v>
-      </c>
-      <c r="N88" t="n">
-        <v>47</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4032,32 +4032,32 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
       <c r="M89" t="n">
-        <v>6</v>
-      </c>
-      <c r="N89" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4073,32 +4073,32 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>10</v>
+      </c>
       <c r="M90" t="n">
-        <v>5</v>
-      </c>
-      <c r="N90" t="n">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4114,32 +4114,32 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
-      <c r="N91" t="n">
-        <v>1</v>
-      </c>
+      <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4155,32 +4155,32 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>15</v>
+      </c>
       <c r="M92" t="n">
-        <v>14</v>
-      </c>
-      <c r="N92" t="n">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4196,32 +4196,32 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
       <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4237,32 +4237,32 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
       <c r="M94" t="n">
-        <v>2</v>
-      </c>
-      <c r="N94" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4278,32 +4278,32 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>7</v>
+      </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
+      <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4319,32 +4319,32 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
+      <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4360,23 +4360,23 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Septiembre</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
       <c r="M97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -4413,10 +4413,10 @@
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O98" t="inlineStr"/>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -4457,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O99" t="inlineStr"/>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -4495,10 +4495,10 @@
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N100" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O100" t="inlineStr"/>
     </row>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -4536,10 +4536,10 @@
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O101" t="inlineStr"/>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -4577,10 +4577,10 @@
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O102" t="inlineStr"/>
     </row>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -4618,10 +4618,10 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N103" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O103" t="inlineStr"/>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -4659,10 +4659,10 @@
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N104" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="O104" t="inlineStr"/>
     </row>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -4703,7 +4703,7 @@
         <v>4</v>
       </c>
       <c r="N105" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O105" t="inlineStr"/>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N106" t="n">
         <v>3</v>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -4782,10 +4782,10 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
       </c>
       <c r="O107" t="inlineStr"/>
     </row>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -4823,10 +4823,10 @@
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O108" t="inlineStr"/>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="N109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O109" t="inlineStr"/>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -4908,7 +4908,7 @@
         <v>2</v>
       </c>
       <c r="N110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O110" t="inlineStr"/>
     </row>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -4946,10 +4946,10 @@
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N111" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O111" t="inlineStr"/>
     </row>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Octubre</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -5028,10 +5028,10 @@
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O113" t="inlineStr"/>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -5069,10 +5069,10 @@
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O114" t="inlineStr"/>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -5151,10 +5151,10 @@
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O116" t="inlineStr"/>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="N117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O117" t="inlineStr"/>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -5233,10 +5233,10 @@
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" t="n">
         <v>3</v>
-      </c>
-      <c r="N118" t="n">
-        <v>1</v>
       </c>
       <c r="O118" t="inlineStr"/>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -5274,10 +5274,10 @@
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
+        <v>11</v>
+      </c>
+      <c r="N119" t="n">
         <v>10</v>
-      </c>
-      <c r="N119" t="n">
-        <v>9</v>
       </c>
       <c r="O119" t="inlineStr"/>
     </row>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -5315,10 +5315,10 @@
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N120" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O120" t="inlineStr"/>
     </row>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -5356,10 +5356,10 @@
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N121" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O121" t="inlineStr"/>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -5397,10 +5397,10 @@
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N122" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O122" t="inlineStr"/>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -5438,10 +5438,10 @@
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O123" t="inlineStr"/>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -5479,7 +5479,7 @@
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N124" t="n">
         <v>11</v>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -5520,10 +5520,10 @@
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
+        <v>4</v>
+      </c>
+      <c r="N125" t="n">
         <v>3</v>
-      </c>
-      <c r="N125" t="n">
-        <v>2</v>
       </c>
       <c r="O125" t="inlineStr"/>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="N126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O126" t="inlineStr"/>
     </row>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -5602,10 +5602,10 @@
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
+        <v>7</v>
+      </c>
+      <c r="N127" t="n">
         <v>2</v>
-      </c>
-      <c r="N127" t="n">
-        <v>3</v>
       </c>
       <c r="O127" t="inlineStr"/>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -5643,7 +5643,7 @@
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Noviembre</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -5684,10 +5684,10 @@
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0</v>
       </c>
       <c r="O129" t="inlineStr"/>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -5725,10 +5725,10 @@
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O130" t="inlineStr"/>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -5766,10 +5766,10 @@
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O131" t="inlineStr"/>
     </row>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -5807,10 +5807,10 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N132" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O132" t="inlineStr"/>
     </row>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -5848,10 +5848,10 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O133" t="inlineStr"/>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -5889,10 +5889,10 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N134" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O134" t="inlineStr"/>
     </row>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -5933,7 +5933,7 @@
         <v>10</v>
       </c>
       <c r="N135" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O135" t="inlineStr"/>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -5971,10 +5971,10 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N136" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O136" t="inlineStr"/>
     </row>
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -6012,10 +6012,10 @@
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N137" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O137" t="inlineStr"/>
     </row>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -6053,10 +6053,10 @@
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N138" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O138" t="inlineStr"/>
     </row>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -6097,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="N139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O139" t="inlineStr"/>
     </row>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -6135,10 +6135,10 @@
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N140" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O140" t="inlineStr"/>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -6176,10 +6176,10 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O141" t="inlineStr"/>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -6217,7 +6217,7 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N142" t="n">
         <v>3</v>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
         <v>5</v>
       </c>
       <c r="N143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O143" t="inlineStr"/>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -6340,7 +6340,7 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
@@ -6349,11 +6349,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6369,32 +6369,32 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
       <c r="N146" t="n">
-        <v>3</v>
-      </c>
-      <c r="O146" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="O146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6410,32 +6410,32 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
       <c r="N147" t="n">
-        <v>3</v>
-      </c>
-      <c r="O147" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6451,32 +6451,32 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>6</v>
+      </c>
       <c r="N148" t="n">
-        <v>1</v>
-      </c>
-      <c r="O148" t="n">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="O148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6492,32 +6492,32 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>2</v>
+      </c>
       <c r="N149" t="n">
-        <v>2</v>
-      </c>
-      <c r="O149" t="n">
         <v>1</v>
       </c>
+      <c r="O149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6533,32 +6533,32 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
       <c r="N150" t="n">
-        <v>1</v>
-      </c>
-      <c r="O150" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6574,32 +6574,32 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>6</v>
+      </c>
       <c r="N151" t="n">
-        <v>10</v>
-      </c>
-      <c r="O151" t="n">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6615,32 +6615,32 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>51</v>
+      </c>
       <c r="N152" t="n">
-        <v>59</v>
-      </c>
-      <c r="O152" t="n">
-        <v>43</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="O152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6656,32 +6656,32 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>4</v>
+      </c>
       <c r="N153" t="n">
-        <v>12</v>
-      </c>
-      <c r="O153" t="n">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="O153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6697,32 +6697,32 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>3</v>
+      </c>
       <c r="N154" t="n">
-        <v>4</v>
-      </c>
-      <c r="O154" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6738,32 +6738,32 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
       <c r="N155" t="n">
         <v>0</v>
       </c>
-      <c r="O155" t="n">
-        <v>0</v>
-      </c>
+      <c r="O155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6779,32 +6779,32 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>5</v>
+      </c>
       <c r="N156" t="n">
-        <v>13</v>
-      </c>
-      <c r="O156" t="n">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6820,32 +6820,32 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>3</v>
+      </c>
       <c r="N157" t="n">
-        <v>5</v>
-      </c>
-      <c r="O157" t="n">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6861,32 +6861,32 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
       <c r="N158" t="n">
         <v>3</v>
       </c>
-      <c r="O158" t="n">
-        <v>2</v>
-      </c>
+      <c r="O158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6902,32 +6902,32 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
       <c r="N159" t="n">
-        <v>6</v>
-      </c>
-      <c r="O159" t="n">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6943,32 +6943,32 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
       <c r="N160" t="n">
         <v>1</v>
       </c>
-      <c r="O160" t="n">
-        <v>0</v>
-      </c>
+      <c r="O160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6984,32 +6984,32 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>Octubre</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
       <c r="N161" t="n">
-        <v>0</v>
-      </c>
-      <c r="O161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7025,32 +7025,32 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>3</v>
+      </c>
       <c r="N162" t="n">
         <v>1</v>
       </c>
-      <c r="O162" t="n">
-        <v>3</v>
-      </c>
+      <c r="O162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7066,32 +7066,32 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
       <c r="N163" t="n">
-        <v>3</v>
-      </c>
-      <c r="O163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7107,32 +7107,32 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
       <c r="N164" t="n">
         <v>4</v>
       </c>
-      <c r="O164" t="n">
-        <v>3</v>
-      </c>
+      <c r="O164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7148,32 +7148,32 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
       <c r="N165" t="n">
         <v>2</v>
       </c>
-      <c r="O165" t="n">
-        <v>1</v>
-      </c>
+      <c r="O165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7189,32 +7189,32 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>3</v>
+      </c>
       <c r="N166" t="n">
-        <v>5</v>
-      </c>
-      <c r="O166" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7230,32 +7230,32 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>10</v>
+      </c>
       <c r="N167" t="n">
-        <v>7</v>
-      </c>
-      <c r="O167" t="n">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="O167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7271,32 +7271,32 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>54</v>
+      </c>
       <c r="N168" t="n">
         <v>40</v>
       </c>
-      <c r="O168" t="n">
-        <v>40</v>
-      </c>
+      <c r="O168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7312,32 +7312,32 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>3</v>
+      </c>
       <c r="N169" t="n">
-        <v>2</v>
-      </c>
-      <c r="O169" t="n">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="O169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7353,32 +7353,32 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>4</v>
+      </c>
       <c r="N170" t="n">
-        <v>5</v>
-      </c>
-      <c r="O170" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="O170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7394,32 +7394,32 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
       <c r="N171" t="n">
-        <v>2</v>
-      </c>
-      <c r="O171" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7435,32 +7435,32 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>6</v>
+      </c>
       <c r="N172" t="n">
-        <v>6</v>
-      </c>
-      <c r="O172" t="n">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7476,32 +7476,32 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>3</v>
+      </c>
       <c r="N173" t="n">
-        <v>4</v>
-      </c>
-      <c r="O173" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7517,32 +7517,32 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
       <c r="N174" t="n">
-        <v>1</v>
-      </c>
-      <c r="O174" t="n">
         <v>2</v>
       </c>
+      <c r="O174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7558,32 +7558,32 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>2</v>
+      </c>
       <c r="N175" t="n">
-        <v>1</v>
-      </c>
-      <c r="O175" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7599,32 +7599,32 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
       <c r="N176" t="n">
-        <v>1</v>
-      </c>
-      <c r="O176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7640,32 +7640,32 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Noviembre</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
       <c r="N177" t="n">
-        <v>1</v>
-      </c>
-      <c r="O177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7681,32 +7681,32 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>6</v>
+      </c>
       <c r="N178" t="n">
         <v>1</v>
       </c>
-      <c r="O178" t="n">
-        <v>3</v>
-      </c>
+      <c r="O178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7722,32 +7722,32 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>7</v>
+      </c>
       <c r="N179" t="n">
-        <v>2</v>
-      </c>
-      <c r="O179" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="O179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7763,32 +7763,32 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>3</v>
+      </c>
       <c r="N180" t="n">
-        <v>5</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7804,32 +7804,32 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>5</v>
+      </c>
       <c r="N181" t="n">
-        <v>5</v>
-      </c>
-      <c r="O181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7845,32 +7845,32 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>4</v>
+      </c>
       <c r="N182" t="n">
-        <v>4</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="O182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7886,32 +7886,32 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>10</v>
+      </c>
       <c r="N183" t="n">
-        <v>11</v>
-      </c>
-      <c r="O183" t="n">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7927,32 +7927,32 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>55</v>
+      </c>
       <c r="N184" t="n">
-        <v>47</v>
-      </c>
-      <c r="O184" t="n">
-        <v>43</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7968,32 +7968,32 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>3</v>
+      </c>
       <c r="N185" t="n">
-        <v>3</v>
-      </c>
-      <c r="O185" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8009,32 +8009,32 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>7</v>
+      </c>
       <c r="N186" t="n">
-        <v>2</v>
-      </c>
-      <c r="O186" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8050,32 +8050,32 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
       <c r="N187" t="n">
         <v>4</v>
       </c>
-      <c r="O187" t="n">
-        <v>0</v>
-      </c>
+      <c r="O187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8091,32 +8091,32 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>6</v>
+      </c>
       <c r="N188" t="n">
-        <v>12</v>
-      </c>
-      <c r="O188" t="n">
         <v>5</v>
       </c>
+      <c r="O188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8132,32 +8132,32 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>3</v>
+      </c>
       <c r="N189" t="n">
-        <v>3</v>
-      </c>
-      <c r="O189" t="n">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="O189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -8173,32 +8173,32 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
       <c r="N190" t="n">
-        <v>5</v>
-      </c>
-      <c r="O190" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8214,32 +8214,32 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>5</v>
+      </c>
       <c r="N191" t="n">
-        <v>7</v>
-      </c>
-      <c r="O191" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8255,32 +8255,32 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
       <c r="N192" t="n">
-        <v>2</v>
-      </c>
-      <c r="O192" t="n">
         <v>1</v>
       </c>
+      <c r="O192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8296,24 +8296,24 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Diciembre</t>
         </is>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
       <c r="N193" t="n">
         <v>0</v>
       </c>
-      <c r="O193" t="n">
-        <v>2</v>
-      </c>
+      <c r="O193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I194" t="inlineStr"/>
@@ -8350,10 +8350,10 @@
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O194" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8382,7 +8382,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I195" t="inlineStr"/>
@@ -8391,10 +8391,10 @@
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
@@ -8432,10 +8432,10 @@
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="n">
         <v>3</v>
-      </c>
-      <c r="O196" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="197">
@@ -8444,7 +8444,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -8473,10 +8473,10 @@
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="n">
+        <v>2</v>
+      </c>
+      <c r="O197" t="n">
         <v>1</v>
-      </c>
-      <c r="O197" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="198">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
@@ -8514,10 +8514,10 @@
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O198" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
@@ -8558,7 +8558,7 @@
         <v>10</v>
       </c>
       <c r="O199" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
@@ -8596,10 +8596,10 @@
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O200" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
@@ -8637,10 +8637,10 @@
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O201" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I202" t="inlineStr"/>
@@ -8678,7 +8678,7 @@
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O202" t="n">
         <v>4</v>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I203" t="inlineStr"/>
@@ -8719,10 +8719,10 @@
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I204" t="inlineStr"/>
@@ -8760,10 +8760,10 @@
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O204" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
@@ -8801,10 +8801,10 @@
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O205" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
@@ -8842,7 +8842,7 @@
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O206" t="n">
         <v>2</v>
@@ -8854,7 +8854,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I207" t="inlineStr"/>
@@ -8883,10 +8883,10 @@
       <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O207" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I208" t="inlineStr"/>
@@ -8924,7 +8924,7 @@
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O208" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Enero</t>
         </is>
       </c>
       <c r="I209" t="inlineStr"/>
@@ -8965,9 +8965,1977 @@
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
-      <c r="O209" t="n">
+      <c r="O210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Región de Tarapacá</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>3</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Región de Antofagasta</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>4</v>
+      </c>
+      <c r="O212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>2</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>5</v>
+      </c>
+      <c r="O214" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>7</v>
+      </c>
+      <c r="O215" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Región Metropolitana de Santiago</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>40</v>
+      </c>
+      <c r="O216" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>2</v>
+      </c>
+      <c r="O217" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>5</v>
+      </c>
+      <c r="O218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Región del Biobío</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
+        <v>6</v>
+      </c>
+      <c r="O220" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O221" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Región de Los Ríos</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Región de Los Lagos</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+      <c r="O224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Región de Magallanes y de la Antártica Chilena</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+      <c r="O226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Región de Tarapacá</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
+        <v>2</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Región de Antofagasta</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
+        <v>5</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
+        <v>5</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
+        <v>4</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
+        <v>11</v>
+      </c>
+      <c r="O231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Región Metropolitana de Santiago</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
+        <v>47</v>
+      </c>
+      <c r="O232" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
+        <v>3</v>
+      </c>
+      <c r="O233" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>2</v>
+      </c>
+      <c r="O234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>4</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Región del Biobío</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>12</v>
+      </c>
+      <c r="O236" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Región de Los Ríos</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>5</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Región de Los Lagos</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>7</v>
+      </c>
+      <c r="O239" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>2</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Región de Magallanes y de la Antártica Chilena</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>2</v>
+      </c>
+      <c r="O242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Región de Tarapacá</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>6</v>
+      </c>
+      <c r="O243" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Región de Antofagasta</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>3</v>
+      </c>
+      <c r="O244" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+      <c r="O245" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>7</v>
+      </c>
+      <c r="O246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>10</v>
+      </c>
+      <c r="O247" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Región Metropolitana de Santiago</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>29</v>
+      </c>
+      <c r="O248" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Región del Libertador Gral. Bernardo O’Higgins</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>4</v>
+      </c>
+      <c r="O249" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>2</v>
+      </c>
+      <c r="O250" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
+        <v>3</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Región del Biobío</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
+        <v>7</v>
+      </c>
+      <c r="O252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+      <c r="O253" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Región de Los Ríos</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Región de Los Lagos</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
+        <v>4</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Región de Magallanes y de la Antártica Chilena</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Carabineros de Chile y la Policía de Investigaciones de Chile</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+      <c r="O257" t="n">
         <v>0</v>
       </c>
     </row>
